--- a/Danh_sach_nguoi_thu_huong_invalid (3).xlsx
+++ b/Danh_sach_nguoi_thu_huong_invalid (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuongnguyen4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhnguyen4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD45B6F-2BC7-4E74-AB63-30FCECB2457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707CDA9D-49C8-4988-AF34-B5829BC85F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t xml:space="preserve">Tên người thụ hưởng </t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Nguyễn thị phượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Test ck 247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	0129837294</t>
+  </si>
+  <si>
+    <t>L00001</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,29 +237,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <left style="thin">
@@ -581,20 +575,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6328125" style="1"/>
+    <col min="1" max="1" width="28.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -699,13 +693,27 @@
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:E4 A5:D6 A7:E1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -727,15 +735,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="2"/>
-    <col min="2" max="2" width="16.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.90625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.6328125" style="2"/>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -743,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -751,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -759,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -767,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -775,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -785,7 +793,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
